--- a/output/fit_clients/fit_round_171.xlsx
+++ b/output/fit_clients/fit_round_171.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1622124831.206633</v>
+        <v>2522731910.607197</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1148313184521</v>
+        <v>0.08051791301183246</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0398941735988026</v>
+        <v>0.04273969426857204</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>811062360.4396825</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2538718603.281705</v>
+        <v>2484578968.0207</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1170839104992463</v>
+        <v>0.1632760413488534</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03634380925930766</v>
+        <v>0.03504955754072371</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1269359425.103041</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3363108893.585452</v>
+        <v>3916653727.452519</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1351274378016648</v>
+        <v>0.150799333944812</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03153957621028499</v>
+        <v>0.03258171280671937</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>62</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1681554415.82191</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4147099090.810519</v>
+        <v>2822229928.977187</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07443339866965351</v>
+        <v>0.07499160148861547</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04557653364022241</v>
+        <v>0.04577929714903502</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2073549539.364118</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1918099342.173345</v>
+        <v>1981028968.460824</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1451361501834461</v>
+        <v>0.1147222837743335</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04449859211658162</v>
+        <v>0.05479032544351728</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26</v>
-      </c>
-      <c r="J6" t="n">
-        <v>959049709.518906</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2341087777.999156</v>
+        <v>2104865092.976295</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0779424053224807</v>
+        <v>0.08860994185237879</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04511706666845056</v>
+        <v>0.04589892765031986</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>54</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1170543917.277347</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2723490962.91292</v>
+        <v>2650452075.006621</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2162192533859407</v>
+        <v>0.1512524539737247</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02198992091038001</v>
+        <v>0.02663884391350889</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>54</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1361745510.676393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2268101649.928689</v>
+        <v>2041091560.477532</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1274606232387182</v>
+        <v>0.1483030976008336</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03715355761727322</v>
+        <v>0.02318115659707915</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1134050814.345494</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5448991476.554294</v>
+        <v>5137848753.994518</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1622939770236619</v>
+        <v>0.1580268522147422</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05285360316716932</v>
+        <v>0.04996272842599307</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>72</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2724495872.313943</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2764626418.971186</v>
+        <v>4198224855.792858</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1363809957205929</v>
+        <v>0.1576012434523063</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04549134090804321</v>
+        <v>0.03926453842699284</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>70</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1382313135.964011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3084601577.784457</v>
+        <v>2806149214.488194</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1392928435002182</v>
+        <v>0.1503853645817799</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04995824122575681</v>
+        <v>0.05333136163522406</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>60</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1542300814.621885</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4872264630.812191</v>
+        <v>4690685136.79957</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07577678153648351</v>
+        <v>0.09551680093796067</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0311763567128632</v>
+        <v>0.02318818163769461</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>57</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2436132326.002812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3843446760.451672</v>
+        <v>3118429632.406961</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1828490319640634</v>
+        <v>0.1804511645280533</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02826087203276156</v>
+        <v>0.04052504384159527</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>55</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1921723353.547683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1665609952.731079</v>
+        <v>1493460286.736938</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06837720696747299</v>
+        <v>0.06628367787256201</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03542556442514869</v>
+        <v>0.04679656787910382</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>832805099.3839487</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1766462664.003119</v>
+        <v>1904336073.907401</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1077417899183199</v>
+        <v>0.09342479807646296</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04553081238419631</v>
+        <v>0.03188059021454351</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>26</v>
-      </c>
-      <c r="J16" t="n">
-        <v>883231428.3348975</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4089892237.748985</v>
+        <v>4406565777.665723</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1342664091057302</v>
+        <v>0.1291108055111843</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04395601124135338</v>
+        <v>0.03410135795930231</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>50</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2044946148.953512</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3413209151.680163</v>
+        <v>3044940732.996246</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1461350185394431</v>
+        <v>0.1792082638388446</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02503519816302176</v>
+        <v>0.0294382960494402</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>56</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1706604576.13063</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>844641172.0901719</v>
+        <v>1148296393.722694</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1766914469997813</v>
+        <v>0.1656930699139079</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02649295503313173</v>
+        <v>0.02266161145913728</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>422320577.4253683</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2777120021.469646</v>
+        <v>2661440134.597817</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1195541522479677</v>
+        <v>0.1329904222981466</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02518150105105239</v>
+        <v>0.02937053858315947</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>28</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1388559954.295388</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2500707494.597579</v>
+        <v>2154425469.607134</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08115617687524418</v>
+        <v>0.06467966347412253</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03679048785970315</v>
+        <v>0.03701253764070563</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1250353735.348002</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3603818937.853215</v>
+        <v>2945300746.313918</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09729173619951745</v>
+        <v>0.1148366761159187</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05379208166089303</v>
+        <v>0.04769473324196962</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>46</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1801909494.271159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1313016960.278186</v>
+        <v>1323381332.463491</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1666569014253325</v>
+        <v>0.157670027600901</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03898214943906013</v>
+        <v>0.05001861567995861</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>656508497.5535673</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2876722563.386265</v>
+        <v>2917544669.284359</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1311322279561419</v>
+        <v>0.1244828637141201</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02776510108077001</v>
+        <v>0.03550186127974852</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>51</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1438361325.204644</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1104373540.908966</v>
+        <v>1388514757.95721</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07589364241378255</v>
+        <v>0.1089075268455432</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02741501077239427</v>
+        <v>0.02454259013072408</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>552186810.4031863</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1251688181.172145</v>
+        <v>1327030236.663185</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1138736167082907</v>
+        <v>0.1169263370811008</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02424663757694923</v>
+        <v>0.03258714377535803</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>625844124.2932512</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3318864126.506064</v>
+        <v>4060881995.201355</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09827238394777849</v>
+        <v>0.1076399539109749</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01991290995337546</v>
+        <v>0.02108923583354378</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>39</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1659432107.192705</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3700622163.491454</v>
+        <v>2799808796.30522</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1396935326491533</v>
+        <v>0.1384275062240639</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04234832065623234</v>
+        <v>0.03430602906959157</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>55</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1850311153.758067</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5076361538.907058</v>
+        <v>4564977733.540764</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1054964251690059</v>
+        <v>0.09410027261350877</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04046040838734562</v>
+        <v>0.02814406368072572</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>77</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2538180711.693799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2403271846.790047</v>
+        <v>2061164777.592149</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1377652597595949</v>
+        <v>0.09348805222013881</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0246741179193013</v>
+        <v>0.02587869638313133</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1201636006.779104</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1062719668.649383</v>
+        <v>902908081.4129055</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08387095969871704</v>
+        <v>0.07903066998576792</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05164373909452234</v>
+        <v>0.03779925042402493</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>531359818.0709732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1775637948.085322</v>
+        <v>1157365548.734595</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1025066746938326</v>
+        <v>0.07888551461027479</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0329127907282315</v>
+        <v>0.02956113558221467</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>887819099.4737092</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3048185653.611706</v>
+        <v>2023407149.400215</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1929687114366713</v>
+        <v>0.1326574860721792</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06018408569024551</v>
+        <v>0.04707381159144357</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>52</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1524092818.285331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1407788280.293759</v>
+        <v>1047857693.548443</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1039686836833751</v>
+        <v>0.09217807186583749</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01965403721190435</v>
+        <v>0.02047603632139509</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>703894111.0949428</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>861703471.2145219</v>
+        <v>996943169.9436593</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1159909483239571</v>
+        <v>0.09218196208761548</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03543744989598283</v>
+        <v>0.04524204924626533</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>430851784.4884136</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2766588139.242126</v>
+        <v>2780270530.72823</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1363678111173685</v>
+        <v>0.1333518175261691</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02213576156960635</v>
+        <v>0.02316185338274322</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>43</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1383294070.193685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2113187454.111697</v>
+        <v>1927359128.667941</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1123163780672324</v>
+        <v>0.1106642206671336</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03863521520528201</v>
+        <v>0.04256188129511943</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>48</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1056593769.869719</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1731295736.654141</v>
+        <v>1444663440.222237</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09475315046258037</v>
+        <v>0.1051984229307715</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03281644353380244</v>
+        <v>0.02755709542690568</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>865647884.8811076</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1469695470.144254</v>
+        <v>1783592451.767646</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1239149801379305</v>
+        <v>0.1561879446885996</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0281422930470765</v>
+        <v>0.02616639561271834</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>734847810.076206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1644292818.230783</v>
+        <v>1676106774.347993</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1192179403166063</v>
+        <v>0.1423081031780047</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04797110210079342</v>
+        <v>0.03737423756375757</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>822146339.1737472</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2648580562.672352</v>
+        <v>2101403512.099169</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1003468285129112</v>
+        <v>0.1006655709454907</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03414173514087787</v>
+        <v>0.04401709060196596</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>45</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1324290292.043166</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4309637820.038774</v>
+        <v>3778561053.269843</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1200507082243385</v>
+        <v>0.09372604006626147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03661363107084831</v>
+        <v>0.04649508281893994</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2154818960.573437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2008136855.626495</v>
+        <v>2552422429.292591</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1288349979961862</v>
+        <v>0.1894345562184594</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02244833149364187</v>
+        <v>0.01901152070268908</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>59</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1004068525.88283</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1904278008.562898</v>
+        <v>1763147397.311654</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09379988945816632</v>
+        <v>0.0798625372481971</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02501648824508015</v>
+        <v>0.032427624545628</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>952139091.4868422</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2321485778.90109</v>
+        <v>2012705800.84406</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1899821337882204</v>
+        <v>0.176097253358838</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03682491980055468</v>
+        <v>0.04682363317371618</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1160742912.669115</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5414641744.719259</v>
+        <v>4046607992.907043</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1721005283352849</v>
+        <v>0.1526632286978118</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0442151514371046</v>
+        <v>0.04001690638934139</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>61</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2707320922.890325</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4757218775.350401</v>
+        <v>5044966378.503236</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1483265185917127</v>
+        <v>0.1937158012323643</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03851832442050009</v>
+        <v>0.0378946673306432</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>46</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2378609429.7188</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3233885892.6489</v>
+        <v>2986545241.285331</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1028059983273731</v>
+        <v>0.1105859070265671</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03560805144531353</v>
+        <v>0.0324740035136598</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1616943025.165709</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1299635436.479735</v>
+        <v>1796353186.231684</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1921422217078906</v>
+        <v>0.1443415362306797</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03016930758659206</v>
+        <v>0.03180298135799733</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>649817781.379016</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3237979381.875515</v>
+        <v>3728394462.232561</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1478507292178492</v>
+        <v>0.1767035176896396</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0486337966834273</v>
+        <v>0.04552537877910925</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>58</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1618989733.810407</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1000525561.052469</v>
+        <v>1262181258.367277</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1453576899882035</v>
+        <v>0.1439573854912624</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04597960601117217</v>
+        <v>0.04947894976322487</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>500262864.3764756</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4188267632.345902</v>
+        <v>3957107446.391251</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09497865482321367</v>
+        <v>0.08425641623213871</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05417943590898033</v>
+        <v>0.0503543691392125</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>70</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2094133861.541038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2330073245.097263</v>
+        <v>3030568152.440233</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1697675053718566</v>
+        <v>0.132157427286088</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03516115397395622</v>
+        <v>0.02744753002814201</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>49</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1165036701.204341</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3662104415.240045</v>
+        <v>4247911836.492758</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1102989845411511</v>
+        <v>0.160307843638813</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03337875702063568</v>
+        <v>0.03453858277296199</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>56</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1831052245.128576</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3301360153.856844</v>
+        <v>4284955944.787262</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2148876511995512</v>
+        <v>0.1463093505108312</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02956022414323658</v>
+        <v>0.0238164231388008</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1650680020.993313</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1759180846.358375</v>
+        <v>1892300900.628231</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1190912911146288</v>
+        <v>0.1511997514567234</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05578449942004814</v>
+        <v>0.03718992069708144</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>879590427.0238677</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3334885713.213892</v>
+        <v>4423536593.227073</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1423474742158861</v>
+        <v>0.1127952238345251</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01970832906598003</v>
+        <v>0.02308911940951965</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>55</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1667442889.098563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1362736009.370437</v>
+        <v>1357297007.854424</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1495272884543518</v>
+        <v>0.1424965773895931</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03293857124843779</v>
+        <v>0.0261034984179669</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>681368048.3264891</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4630972551.41353</v>
+        <v>3820194983.644372</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09751186308957002</v>
+        <v>0.1239088697853281</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0351017828535136</v>
+        <v>0.04552347137395395</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2315486221.1996</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2612221844.433165</v>
+        <v>2653815912.446159</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1947049483412785</v>
+        <v>0.1576304465676175</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02556454016951246</v>
+        <v>0.02828637488364759</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>53</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1306110951.853454</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3372874767.447428</v>
+        <v>3304323114.453166</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1096219728269309</v>
+        <v>0.1289166309294948</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02067784077623067</v>
+        <v>0.03219990775589763</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>57</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1686437328.99614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2001400901.314405</v>
+        <v>1993799956.279317</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1516200638491023</v>
+        <v>0.1562719026323441</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03417143594182215</v>
+        <v>0.04954554572296644</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1000700508.872869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5426874858.286423</v>
+        <v>3579278145.75351</v>
       </c>
       <c r="F63" t="n">
-        <v>0.10703131180848</v>
+        <v>0.08185870629170577</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03197646604493894</v>
+        <v>0.03714761830146904</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>48</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2713437427.809607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3425696335.651396</v>
+        <v>4519723224.185326</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1615216378632499</v>
+        <v>0.141504015591078</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03079186172305558</v>
+        <v>0.02375828071055373</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>53</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1712848163.252645</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4563342340.719928</v>
+        <v>5694735945.923808</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1163666689664112</v>
+        <v>0.1274782888110284</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02241745446734821</v>
+        <v>0.02362980118057513</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>62</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2281671155.304317</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4630719641.477798</v>
+        <v>4579252491.276299</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1072545764789393</v>
+        <v>0.1326779005674172</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04624880351102792</v>
+        <v>0.03897245433176699</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>50</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2315359828.08559</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3399835955.291596</v>
+        <v>2271118060.918291</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09062937168802472</v>
+        <v>0.08241641808575351</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04713194625150144</v>
+        <v>0.03809704651188067</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>54</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1699917961.999519</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5465976023.491869</v>
+        <v>4687124207.086792</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1039483973831767</v>
+        <v>0.1206604255213548</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05179835712966992</v>
+        <v>0.03769399345821395</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>55</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2732988096.340848</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2186318298.242814</v>
+        <v>1958147548.953872</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1832107662106077</v>
+        <v>0.1255546655772002</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04071582984916507</v>
+        <v>0.05930581529566452</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1093159178.111043</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3068682837.284564</v>
+        <v>2938740751.715964</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1019643178054663</v>
+        <v>0.0736802131026271</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03236749891859938</v>
+        <v>0.04298398171910361</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>49</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1534341400.034595</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3540196565.981924</v>
+        <v>3400133351.390123</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1592026367556306</v>
+        <v>0.152624098409419</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02601646592958023</v>
+        <v>0.03188509618554072</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>62</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1770098279.710034</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2131651417.836755</v>
+        <v>1945596240.904181</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09481961103156479</v>
+        <v>0.09942366290773554</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03572210814579888</v>
+        <v>0.04122920577793767</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1065825634.00913</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3118191160.885212</v>
+        <v>3337370328.955572</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08442414006998944</v>
+        <v>0.0962818792485132</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03697774666952524</v>
+        <v>0.05120066609491034</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>66</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1559095565.555112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2912706563.115247</v>
+        <v>3858258248.613517</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1757335825874445</v>
+        <v>0.1328729393792042</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03150036737776843</v>
+        <v>0.03506311431945459</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>58</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1456353354.493185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1510411149.562834</v>
+        <v>2136184892.305611</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1309913386359219</v>
+        <v>0.1601990997193113</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02558555511100082</v>
+        <v>0.02288627746258385</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>755205584.7915361</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3765609055.270082</v>
+        <v>3493591571.573099</v>
       </c>
       <c r="F76" t="n">
-        <v>0.077601774274806</v>
+        <v>0.08326181080097105</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02995266342441406</v>
+        <v>0.02853452433399222</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1882804502.461263</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2003573221.660091</v>
+        <v>2024796823.57605</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1346148406879529</v>
+        <v>0.1327734755524442</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0243383861913022</v>
+        <v>0.0246766315900148</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1001786672.882885</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3475023014.179896</v>
+        <v>4350240920.477722</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08872284195281761</v>
+        <v>0.1190119681481132</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03645759071603312</v>
+        <v>0.03601938613338863</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>60</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1737511510.376241</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1291704989.785911</v>
+        <v>1202235310.764654</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1453401382574044</v>
+        <v>0.1279148333615407</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03936583127270289</v>
+        <v>0.03181268709857392</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>645852492.6379613</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4714508164.663469</v>
+        <v>5544491126.718815</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07025018258641942</v>
+        <v>0.08086501020231089</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02669757861605927</v>
+        <v>0.03321786375198049</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>36</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2357254117.300319</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4254845552.056357</v>
+        <v>4439997043.775995</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1028799274811008</v>
+        <v>0.1172303320502128</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02670333813539039</v>
+        <v>0.02589972599939388</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2127422748.646672</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5470334527.749332</v>
+        <v>4001996098.979269</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2120579488242988</v>
+        <v>0.151266366385266</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02366531579435516</v>
+        <v>0.01859946226239639</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2735167221.557662</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2287273427.480261</v>
+        <v>2144175513.48133</v>
       </c>
       <c r="F83" t="n">
-        <v>0.12928795174953</v>
+        <v>0.1476351612991768</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03488560245534823</v>
+        <v>0.03606721792031758</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1143636734.732824</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1781803662.782905</v>
+        <v>2047935107.581108</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1200697464920573</v>
+        <v>0.1154650449024166</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04860830912690408</v>
+        <v>0.04835205756015402</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>890901868.3313931</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2819947922.946784</v>
+        <v>3661447134.221363</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1151536766940253</v>
+        <v>0.137138051282598</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05287934132065608</v>
+        <v>0.05654794669644178</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>64</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1409974001.719085</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1969231764.322332</v>
+        <v>2326937375.072627</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1669844100937933</v>
+        <v>0.1422750888269236</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02012851612420697</v>
+        <v>0.01667531736655777</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>22</v>
-      </c>
-      <c r="J86" t="n">
-        <v>984615905.4730638</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1389990691.631573</v>
+        <v>1437278692.965496</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1848224355102532</v>
+        <v>0.1458873040430183</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02892020833119438</v>
+        <v>0.03115285053460494</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>694995450.0596136</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2427444031.595614</v>
+        <v>2955085112.049479</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1331961664630252</v>
+        <v>0.1400081134679772</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02883347016041304</v>
+        <v>0.02414018480223481</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>67</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1213721989.630333</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2384169222.694178</v>
+        <v>3056734958.190145</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1241023918093356</v>
+        <v>0.1216968274410456</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03588206516953936</v>
+        <v>0.03401768518361135</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>59</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1192084694.562699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1988381574.589446</v>
+        <v>1993008185.137002</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1173003392922357</v>
+        <v>0.1185588806646728</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03475811490271246</v>
+        <v>0.0401114844737752</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>994190855.3587602</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1703623257.644369</v>
+        <v>1456883773.363395</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1425902991025009</v>
+        <v>0.1214821839499511</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05536462100337478</v>
+        <v>0.05154373430189855</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>851811640.5510387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2424546830.367545</v>
+        <v>2356906069.878746</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09164333482302504</v>
+        <v>0.07071883829557819</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03227307264878623</v>
+        <v>0.04699340252664903</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>42</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1212273393.390342</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4779986606.032951</v>
+        <v>4414868369.619581</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1082707845388961</v>
+        <v>0.0980047706568256</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03993993842874778</v>
+        <v>0.03306151424797488</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>51</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2389993253.169965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2097105976.093337</v>
+        <v>2196296502.337794</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1267695617664743</v>
+        <v>0.1042529802039683</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03912437108587324</v>
+        <v>0.03028464228858919</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1048552998.994011</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3031026736.858302</v>
+        <v>2961836425.041198</v>
       </c>
       <c r="F95" t="n">
-        <v>0.112614107118309</v>
+        <v>0.1255359838879625</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03513290512354469</v>
+        <v>0.03197399583524876</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>40</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1515513365.86239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2125797209.956709</v>
+        <v>2354928931.089114</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1313590666016539</v>
+        <v>0.1331978431418626</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04145219229121729</v>
+        <v>0.03721334122468568</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1062898578.493458</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3343593884.927757</v>
+        <v>4834545273.073339</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1608599231442059</v>
+        <v>0.1770133066522653</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01857491693440017</v>
+        <v>0.01924241944056827</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1671796946.02492</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3505662858.576175</v>
+        <v>2816051092.626181</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08978572251367908</v>
+        <v>0.1143263942880118</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02662264568779594</v>
+        <v>0.0245400201445928</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>45</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1752831448.262062</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2662083342.199122</v>
+        <v>2282973382.303935</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1388700092693138</v>
+        <v>0.118218933398183</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02778281952189251</v>
+        <v>0.0297685641576551</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>55</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1331041632.542248</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4055089876.456072</v>
+        <v>2899481435.5284</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1672865410063492</v>
+        <v>0.1430730899703092</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02178374720276594</v>
+        <v>0.0182387284067194</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>53</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2027545013.277457</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3542409214.974996</v>
+        <v>2988346302.382421</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1640116503220008</v>
+        <v>0.2026930128818871</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04469663838438156</v>
+        <v>0.05658780675840885</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>69</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1771204768.17976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_171.xlsx
+++ b/output/fit_clients/fit_round_171.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2522731910.607197</v>
+        <v>1877240811.858098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08051791301183246</v>
+        <v>0.09071909914821501</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04273969426857204</v>
+        <v>0.04215213763078329</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2484578968.0207</v>
+        <v>2038320738.674834</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1632760413488534</v>
+        <v>0.1177491877323619</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03504955754072371</v>
+        <v>0.03726914337851615</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3916653727.452519</v>
+        <v>4409088806.574957</v>
       </c>
       <c r="F4" t="n">
-        <v>0.150799333944812</v>
+        <v>0.1535216005149992</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03258171280671937</v>
+        <v>0.02921744370796375</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2822229928.977187</v>
+        <v>2767476813.134361</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07499160148861547</v>
+        <v>0.07456190680681586</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04577929714903502</v>
+        <v>0.0312096797635107</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1981028968.460824</v>
+        <v>1945148041.493624</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1147222837743335</v>
+        <v>0.1201825818867129</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05479032544351728</v>
+        <v>0.05520318041468473</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2104865092.976295</v>
+        <v>3092251378.519633</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08860994185237879</v>
+        <v>0.07803813645050882</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04589892765031986</v>
+        <v>0.02997235102465792</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2650452075.006621</v>
+        <v>2439858954.303327</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1512524539737247</v>
+        <v>0.1914109499071735</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02663884391350889</v>
+        <v>0.02713562886419664</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2041091560.477532</v>
+        <v>1772046552.173218</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1483030976008336</v>
+        <v>0.1462591789321098</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02318115659707915</v>
+        <v>0.03461960855411256</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5137848753.994518</v>
+        <v>3633659159.901941</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1580268522147422</v>
+        <v>0.1929241135845347</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04996272842599307</v>
+        <v>0.04516933522664327</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4198224855.792858</v>
+        <v>4289614672.010752</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1576012434523063</v>
+        <v>0.1560486214832202</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03926453842699284</v>
+        <v>0.04814154230210599</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2806149214.488194</v>
+        <v>2233723917.140648</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1503853645817799</v>
+        <v>0.1574047369210918</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05333136163522406</v>
+        <v>0.04190938395016756</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4690685136.79957</v>
+        <v>5033280866.771799</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09551680093796067</v>
+        <v>0.06233751873335503</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02318818163769461</v>
+        <v>0.03142444374134613</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3118429632.406961</v>
+        <v>2899255741.756054</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1804511645280533</v>
+        <v>0.1756303353301592</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04052504384159527</v>
+        <v>0.04156720479018487</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1493460286.736938</v>
+        <v>1558721250.755279</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06628367787256201</v>
+        <v>0.0880306982446537</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04679656787910382</v>
+        <v>0.04941180219024539</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1904336073.907401</v>
+        <v>1746591832.710648</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09342479807646296</v>
+        <v>0.1007793441708793</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03188059021454351</v>
+        <v>0.03736607615980395</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4406565777.665723</v>
+        <v>3595601072.240377</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1291108055111843</v>
+        <v>0.1739640915442982</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03410135795930231</v>
+        <v>0.04559658213748771</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3044940732.996246</v>
+        <v>3255723122.205698</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1792082638388446</v>
+        <v>0.141752236194349</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0294382960494402</v>
+        <v>0.03422794106537768</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1148296393.722694</v>
+        <v>1027861707.889724</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1656930699139079</v>
+        <v>0.1636804689710148</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02266161145913728</v>
+        <v>0.02247848004237666</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2661440134.597817</v>
+        <v>1804528056.291864</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1329904222981466</v>
+        <v>0.11490435518815</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02937053858315947</v>
+        <v>0.03101440242282604</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2154425469.607134</v>
+        <v>2644756834.378852</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06467966347412253</v>
+        <v>0.08718372998485385</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03701253764070563</v>
+        <v>0.03339476884253972</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2945300746.313918</v>
+        <v>2556453265.156272</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1148366761159187</v>
+        <v>0.1326415149159168</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04769473324196962</v>
+        <v>0.03929897749972224</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1323381332.463491</v>
+        <v>1072705929.59543</v>
       </c>
       <c r="F23" t="n">
-        <v>0.157670027600901</v>
+        <v>0.1343133720722196</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05001861567995861</v>
+        <v>0.03961338654742592</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2917544669.284359</v>
+        <v>3554010356.048453</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1244828637141201</v>
+        <v>0.1038206409416887</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03550186127974852</v>
+        <v>0.02623338397504335</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1388514757.95721</v>
+        <v>917167847.3616805</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1089075268455432</v>
+        <v>0.122411353670364</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02454259013072408</v>
+        <v>0.02881263742023788</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1327030236.663185</v>
+        <v>1260903958.723778</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1169263370811008</v>
+        <v>0.1208680971206769</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03258714377535803</v>
+        <v>0.03488627360862943</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4060881995.201355</v>
+        <v>3557918128.835551</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1076399539109749</v>
+        <v>0.1426152952574844</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02108923583354378</v>
+        <v>0.02703086313665855</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2799808796.30522</v>
+        <v>3398928326.625452</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1384275062240639</v>
+        <v>0.1340275369514175</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03430602906959157</v>
+        <v>0.04712554522022434</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4564977733.540764</v>
+        <v>4995953028.552999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09410027261350877</v>
+        <v>0.1060775680309105</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02814406368072572</v>
+        <v>0.03076147497137868</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2061164777.592149</v>
+        <v>1798331213.932308</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09348805222013881</v>
+        <v>0.1196481113130612</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02587869638313133</v>
+        <v>0.0293272296995021</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>902908081.4129055</v>
+        <v>1177255672.894579</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07903066998576792</v>
+        <v>0.08951083128251341</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03779925042402493</v>
+        <v>0.03186075303977852</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1157365548.734595</v>
+        <v>1842041814.709648</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07888551461027479</v>
+        <v>0.1143517915885374</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02956113558221467</v>
+        <v>0.02552790539164172</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2023407149.400215</v>
+        <v>2598650600.033019</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1326574860721792</v>
+        <v>0.1778939295359801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04707381159144357</v>
+        <v>0.06113570414287915</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1047857693.548443</v>
+        <v>1422580524.795115</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09217807186583749</v>
+        <v>0.08543744857408439</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02047603632139509</v>
+        <v>0.02214467720904606</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>996943169.9436593</v>
+        <v>973097200.763244</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09218196208761548</v>
+        <v>0.1077539210008035</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04524204924626533</v>
+        <v>0.0307094036213175</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2780270530.72823</v>
+        <v>2901929087.279456</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1333518175261691</v>
+        <v>0.1711205806781496</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02316185338274322</v>
+        <v>0.02292908198063366</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1927359128.667941</v>
+        <v>2517375150.591545</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1106642206671336</v>
+        <v>0.08928393551388347</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04256188129511943</v>
+        <v>0.03400652577254931</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1444663440.222237</v>
+        <v>2043713151.8095</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1051984229307715</v>
+        <v>0.08521675901621342</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02755709542690568</v>
+        <v>0.03104392442704209</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1783592451.767646</v>
+        <v>2136297305.203495</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1561879446885996</v>
+        <v>0.1618916128457439</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02616639561271834</v>
+        <v>0.02405563010805366</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1676106774.347993</v>
+        <v>1457319147.786288</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1423081031780047</v>
+        <v>0.1041658331325594</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03737423756375757</v>
+        <v>0.03903969732761121</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2101403512.099169</v>
+        <v>1894689535.864622</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1006655709454907</v>
+        <v>0.154783488647434</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04401709060196596</v>
+        <v>0.03929037191933171</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3778561053.269843</v>
+        <v>3505571021.021502</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09372604006626147</v>
+        <v>0.09622586911154632</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04649508281893994</v>
+        <v>0.03568102807542098</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2552422429.292591</v>
+        <v>2508893135.231619</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1894345562184594</v>
+        <v>0.1561933640985937</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01901152070268908</v>
+        <v>0.01964714685466031</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1763147397.311654</v>
+        <v>1517997026.529042</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0798625372481971</v>
+        <v>0.06391520990596015</v>
       </c>
       <c r="G44" t="n">
-        <v>0.032427624545628</v>
+        <v>0.0334001801333059</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2012705800.84406</v>
+        <v>1561408954.923623</v>
       </c>
       <c r="F45" t="n">
-        <v>0.176097253358838</v>
+        <v>0.1529606608296359</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04682363317371618</v>
+        <v>0.05567864406820761</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4046607992.907043</v>
+        <v>5387594721.661989</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1526632286978118</v>
+        <v>0.163792965035488</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04001690638934139</v>
+        <v>0.04573344716113736</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5044966378.503236</v>
+        <v>4023481777.447169</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1937158012323643</v>
+        <v>0.1311608454189505</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0378946673306432</v>
+        <v>0.04914258109867833</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2986545241.285331</v>
+        <v>4029670786.049251</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1105859070265671</v>
+        <v>0.07633802143137805</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0324740035136598</v>
+        <v>0.02508507311000931</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1796353186.231684</v>
+        <v>1801358573.287463</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1443415362306797</v>
+        <v>0.1238445556126015</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03180298135799733</v>
+        <v>0.04021886458627182</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3728394462.232561</v>
+        <v>3762177750.672266</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1767035176896396</v>
+        <v>0.156109592115411</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04552537877910925</v>
+        <v>0.04977113270869301</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1262181258.367277</v>
+        <v>1369747516.759871</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1439573854912624</v>
+        <v>0.1793466019451416</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04947894976322487</v>
+        <v>0.04378196638694017</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3957107446.391251</v>
+        <v>3481687545.708469</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08425641623213871</v>
+        <v>0.09763650204757537</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0503543691392125</v>
+        <v>0.05917070587109936</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3030568152.440233</v>
+        <v>2980299804.839471</v>
       </c>
       <c r="F53" t="n">
-        <v>0.132157427286088</v>
+        <v>0.1975896915800832</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02744753002814201</v>
+        <v>0.03423765332202803</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4247911836.492758</v>
+        <v>4004977529.622678</v>
       </c>
       <c r="F54" t="n">
-        <v>0.160307843638813</v>
+        <v>0.1673997798273309</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03453858277296199</v>
+        <v>0.05063027428337763</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4284955944.787262</v>
+        <v>4317716018.101007</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1463093505108312</v>
+        <v>0.2196730233201529</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0238164231388008</v>
+        <v>0.03207643456502417</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1892300900.628231</v>
+        <v>1203912773.175824</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1511997514567234</v>
+        <v>0.1239069078085526</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03718992069708144</v>
+        <v>0.04175165383964926</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4423536593.227073</v>
+        <v>3542643535.188493</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1127952238345251</v>
+        <v>0.1563111624751301</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02308911940951965</v>
+        <v>0.02671769029487108</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1357297007.854424</v>
+        <v>1819718692.194025</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1424965773895931</v>
+        <v>0.1416109119537979</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0261034984179669</v>
+        <v>0.03077706683321756</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3820194983.644372</v>
+        <v>4339572528.553984</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1239088697853281</v>
+        <v>0.1106130229335111</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04552347137395395</v>
+        <v>0.03622390667729271</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2653815912.446159</v>
+        <v>3206423897.044727</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1576304465676175</v>
+        <v>0.1891231590090442</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02828637488364759</v>
+        <v>0.02639415205487026</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3304323114.453166</v>
+        <v>2474402145.212083</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1289166309294948</v>
+        <v>0.1347223698225696</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03219990775589763</v>
+        <v>0.02979644243780257</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1993799956.279317</v>
+        <v>1702373482.677347</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1562719026323441</v>
+        <v>0.1504708819064201</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04954554572296644</v>
+        <v>0.04574083207782713</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3579278145.75351</v>
+        <v>4973780740.304051</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08185870629170577</v>
+        <v>0.09478172976257035</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03714761830146904</v>
+        <v>0.0427703998536808</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4519723224.185326</v>
+        <v>5436268914.601545</v>
       </c>
       <c r="F64" t="n">
-        <v>0.141504015591078</v>
+        <v>0.1721543086842124</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02375828071055373</v>
+        <v>0.02889196124889148</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5694735945.923808</v>
+        <v>5020278237.951359</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1274782888110284</v>
+        <v>0.1196836493265118</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02362980118057513</v>
+        <v>0.03065069037285683</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4579252491.276299</v>
+        <v>4102132575.807258</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1326779005674172</v>
+        <v>0.1266480248640854</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03897245433176699</v>
+        <v>0.04487176764442539</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2271118060.918291</v>
+        <v>3263494818.186319</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08241641808575351</v>
+        <v>0.07012157331964815</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03809704651188067</v>
+        <v>0.03683633264180989</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4687124207.086792</v>
+        <v>5957943398.715633</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1206604255213548</v>
+        <v>0.1283877299885987</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03769399345821395</v>
+        <v>0.04520358173807042</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1958147548.953872</v>
+        <v>2224719509.431256</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1255546655772002</v>
+        <v>0.1162455942242958</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05930581529566452</v>
+        <v>0.03969401415401273</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2938740751.715964</v>
+        <v>2482356026.595076</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0736802131026271</v>
+        <v>0.06339139342014148</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04298398171910361</v>
+        <v>0.04612854081021817</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3400133351.390123</v>
+        <v>3397358731.075641</v>
       </c>
       <c r="F71" t="n">
-        <v>0.152624098409419</v>
+        <v>0.1727568842331328</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03188509618554072</v>
+        <v>0.03151263762633529</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1945596240.904181</v>
+        <v>2190290193.382493</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09942366290773554</v>
+        <v>0.08079824859235203</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04122920577793767</v>
+        <v>0.04768518664314932</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3337370328.955572</v>
+        <v>3240989426.006344</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0962818792485132</v>
+        <v>0.1042306386899024</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05120066609491034</v>
+        <v>0.03421002284609508</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3858258248.613517</v>
+        <v>2676113484.448451</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1328729393792042</v>
+        <v>0.1699091720189188</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03506311431945459</v>
+        <v>0.03555348616266867</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2136184892.305611</v>
+        <v>2405933234.680402</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1601990997193113</v>
+        <v>0.1599662572249863</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02288627746258385</v>
+        <v>0.03396785231831077</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3493591571.573099</v>
+        <v>3427078275.65388</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08326181080097105</v>
+        <v>0.09205470209768048</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02853452433399222</v>
+        <v>0.02095179521453143</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2024796823.57605</v>
+        <v>2063132658.786823</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1327734755524442</v>
+        <v>0.1570459647131118</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0246766315900148</v>
+        <v>0.0207039369457927</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4350240920.477722</v>
+        <v>2948989159.18391</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1190119681481132</v>
+        <v>0.1291173186445618</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03601938613338863</v>
+        <v>0.0445914946313075</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1202235310.764654</v>
+        <v>1820037664.714227</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1279148333615407</v>
+        <v>0.1135343900043105</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03181268709857392</v>
+        <v>0.03411837670359225</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5544491126.718815</v>
+        <v>4777599957.663015</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08086501020231089</v>
+        <v>0.1027036176195921</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03321786375198049</v>
+        <v>0.02407509939445616</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4439997043.775995</v>
+        <v>4504486713.434661</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1172303320502128</v>
+        <v>0.1326107422035661</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02589972599939388</v>
+        <v>0.01995897510700962</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4001996098.979269</v>
+        <v>5053912567.120558</v>
       </c>
       <c r="F82" t="n">
-        <v>0.151266366385266</v>
+        <v>0.1398681789661657</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01859946226239639</v>
+        <v>0.02064061106155656</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2144175513.48133</v>
+        <v>1829314292.539405</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1476351612991768</v>
+        <v>0.1096506142348561</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03606721792031758</v>
+        <v>0.03188516642005054</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2047935107.581108</v>
+        <v>1656904609.473549</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1154650449024166</v>
+        <v>0.1208610653671058</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04835205756015402</v>
+        <v>0.0519916040595805</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3661447134.221363</v>
+        <v>2855885776.298004</v>
       </c>
       <c r="F85" t="n">
-        <v>0.137138051282598</v>
+        <v>0.1662761989228228</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05654794669644178</v>
+        <v>0.04769407844872079</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2326937375.072627</v>
+        <v>2355695266.236969</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1422750888269236</v>
+        <v>0.1310641559065669</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01667531736655777</v>
+        <v>0.01898905644966026</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1437278692.965496</v>
+        <v>925471302.2276099</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1458873040430183</v>
+        <v>0.1652156960491062</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03115285053460494</v>
+        <v>0.03596178866376805</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2955085112.049479</v>
+        <v>3519801872.053082</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1400081134679772</v>
+        <v>0.139097264845222</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02414018480223481</v>
+        <v>0.03083928718035773</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3056734958.190145</v>
+        <v>3192237907.232025</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1216968274410456</v>
+        <v>0.1108031630925469</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03401768518361135</v>
+        <v>0.02837139283979904</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1993008185.137002</v>
+        <v>1786617875.320347</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1185588806646728</v>
+        <v>0.1184301837357405</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0401114844737752</v>
+        <v>0.04703887593378187</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1456883773.363395</v>
+        <v>1535074850.692365</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1214821839499511</v>
+        <v>0.1750173645868075</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05154373430189855</v>
+        <v>0.04324701639656359</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2356906069.878746</v>
+        <v>2989240243.291385</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07071883829557819</v>
+        <v>0.09280344888842462</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04699340252664903</v>
+        <v>0.03602821625180296</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4414868369.619581</v>
+        <v>4547167853.009278</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0980047706568256</v>
+        <v>0.1037115854609365</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03306151424797488</v>
+        <v>0.03821256349726793</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2196296502.337794</v>
+        <v>2162623596.960722</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1042529802039683</v>
+        <v>0.163129054142892</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03028464228858919</v>
+        <v>0.02989522126294105</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2961836425.041198</v>
+        <v>2874161897.588788</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1255359838879625</v>
+        <v>0.1344106516455528</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03197399583524876</v>
+        <v>0.04246456299839475</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2354928931.089114</v>
+        <v>2220876599.231885</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1331978431418626</v>
+        <v>0.1236474302354625</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03721334122468568</v>
+        <v>0.04011950536985958</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4834545273.073339</v>
+        <v>4778787014.341163</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1770133066522653</v>
+        <v>0.1374194724568919</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01924241944056827</v>
+        <v>0.01971482573449038</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2816051092.626181</v>
+        <v>3079401053.535665</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1143263942880118</v>
+        <v>0.105351504802451</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0245400201445928</v>
+        <v>0.02268420432851935</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2282973382.303935</v>
+        <v>2786166616.677945</v>
       </c>
       <c r="F99" t="n">
-        <v>0.118218933398183</v>
+        <v>0.09308014994822522</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0297685641576551</v>
+        <v>0.02355712245315847</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2899481435.5284</v>
+        <v>3177335626.360648</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1430730899703092</v>
+        <v>0.1530704252613288</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0182387284067194</v>
+        <v>0.02523953198285128</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2988346302.382421</v>
+        <v>2805126216.073531</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2026930128818871</v>
+        <v>0.1669302932062677</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05658780675840885</v>
+        <v>0.04741968089534185</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_171.xlsx
+++ b/output/fit_clients/fit_round_171.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1877240811.858098</v>
+        <v>1889947436.322556</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09071909914821501</v>
+        <v>0.07396720955329406</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04215213763078329</v>
+        <v>0.03312554238238184</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2038320738.674834</v>
+        <v>2523928179.974174</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1177491877323619</v>
+        <v>0.142400297435744</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03726914337851615</v>
+        <v>0.05049520248920488</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4409088806.574957</v>
+        <v>5092847264.481882</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1535216005149992</v>
+        <v>0.1200795443076324</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02921744370796375</v>
+        <v>0.03171870184645923</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>95</v>
+      </c>
+      <c r="J4" t="n">
+        <v>170</v>
+      </c>
+      <c r="K4" t="n">
+        <v>128.5946983099271</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2767476813.134361</v>
+        <v>2826010463.106475</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07456190680681586</v>
+        <v>0.09846573393092442</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0312096797635107</v>
+        <v>0.03757690920998704</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>70</v>
+      </c>
+      <c r="J5" t="n">
+        <v>169</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1945148041.493624</v>
+        <v>2204072417.670603</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1201825818867129</v>
+        <v>0.1031939652625625</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05520318041468473</v>
+        <v>0.04238495649817062</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3092251378.519633</v>
+        <v>3014585838.258641</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07803813645050882</v>
+        <v>0.09097521226478177</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02997235102465792</v>
+        <v>0.03143495953382922</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2439858954.303327</v>
+        <v>2823306860.26521</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1914109499071735</v>
+        <v>0.1574748325697337</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02713562886419664</v>
+        <v>0.02962024878396106</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>49</v>
+      </c>
+      <c r="J8" t="n">
+        <v>169</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1772046552.173218</v>
+        <v>2279154234.184877</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1462591789321098</v>
+        <v>0.1375781767638839</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03461960855411256</v>
+        <v>0.03488231912577922</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3633659159.901941</v>
+        <v>4042793688.922482</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1929241135845347</v>
+        <v>0.1662591551014146</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04516933522664327</v>
+        <v>0.03551902249819543</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>157</v>
+      </c>
+      <c r="J10" t="n">
+        <v>171</v>
+      </c>
+      <c r="K10" t="n">
+        <v>141.2035177842712</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4289614672.010752</v>
+        <v>3951011911.322269</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1560486214832202</v>
+        <v>0.1487145501360746</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04814154230210599</v>
+        <v>0.04166339836819172</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>71</v>
+      </c>
+      <c r="J11" t="n">
+        <v>171</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2233723917.140648</v>
+        <v>2641476300.490766</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1574047369210918</v>
+        <v>0.1669131244094592</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04190938395016756</v>
+        <v>0.03692219510028615</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5033280866.771799</v>
+        <v>3919247424.812198</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06233751873335503</v>
+        <v>0.08675776416467001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03142444374134613</v>
+        <v>0.02623672639868233</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>84</v>
+      </c>
+      <c r="J13" t="n">
+        <v>170</v>
+      </c>
+      <c r="K13" t="n">
+        <v>117.9130176692985</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2899255741.756054</v>
+        <v>3869096940.867835</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1756303353301592</v>
+        <v>0.1446436863199888</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04156720479018487</v>
+        <v>0.03438750839788652</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>31</v>
+      </c>
+      <c r="J14" t="n">
+        <v>171</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1558721250.755279</v>
+        <v>1461779393.206302</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0880306982446537</v>
+        <v>0.08979357864211455</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04941180219024539</v>
+        <v>0.03656242497002576</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1746591832.710648</v>
+        <v>2680218308.636089</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1007793441708793</v>
+        <v>0.09235846016640113</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03736607615980395</v>
+        <v>0.04328674895703342</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3595601072.240377</v>
+        <v>5130767079.352407</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1739640915442982</v>
+        <v>0.1329042123978764</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04559658213748771</v>
+        <v>0.04812693669683948</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>82</v>
+      </c>
+      <c r="J17" t="n">
+        <v>170</v>
+      </c>
+      <c r="K17" t="n">
+        <v>118.6214025522411</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3255723122.205698</v>
+        <v>3919328640.589608</v>
       </c>
       <c r="F18" t="n">
-        <v>0.141752236194349</v>
+        <v>0.1130494488469207</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03422794106537768</v>
+        <v>0.02557045596280543</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>43</v>
+      </c>
+      <c r="J18" t="n">
+        <v>171</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1027861707.889724</v>
+        <v>934270412.8899648</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1636804689710148</v>
+        <v>0.1351893009982489</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02247848004237666</v>
+        <v>0.02408418762232445</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1804528056.291864</v>
+        <v>2452132320.01157</v>
       </c>
       <c r="F20" t="n">
-        <v>0.11490435518815</v>
+        <v>0.1613089838319351</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03101440242282604</v>
+        <v>0.02243561180922098</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2644756834.378852</v>
+        <v>2527271400.415664</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08718372998485385</v>
+        <v>0.08613649393562216</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03339476884253972</v>
+        <v>0.04399354031089513</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2556453265.156272</v>
+        <v>3606619224.483008</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1326415149159168</v>
+        <v>0.1403369181430252</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03929897749972224</v>
+        <v>0.04286077281605503</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>44</v>
+      </c>
+      <c r="J22" t="n">
+        <v>166</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1072705929.59543</v>
+        <v>939466500.8958815</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1343133720722196</v>
+        <v>0.1635087415242052</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03961338654742592</v>
+        <v>0.04405112874080095</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3554010356.048453</v>
+        <v>2853691399.846757</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1038206409416887</v>
+        <v>0.1321323997302931</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02623338397504335</v>
+        <v>0.0324142902107989</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>51</v>
+      </c>
+      <c r="J24" t="n">
+        <v>168</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>917167847.3616805</v>
+        <v>1375783652.175963</v>
       </c>
       <c r="F25" t="n">
-        <v>0.122411353670364</v>
+        <v>0.08684766281397102</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02881263742023788</v>
+        <v>0.0223757133153272</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1260903958.723778</v>
+        <v>1008267126.655772</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1208680971206769</v>
+        <v>0.116515025280387</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03488627360862943</v>
+        <v>0.03788910689875367</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3557918128.835551</v>
+        <v>4230846244.799963</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1426152952574844</v>
+        <v>0.1482521773448749</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02703086313665855</v>
+        <v>0.02017476308656099</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>68</v>
+      </c>
+      <c r="J27" t="n">
+        <v>171</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3398928326.625452</v>
+        <v>3810759395.905987</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1340275369514175</v>
+        <v>0.1474652025685865</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04712554522022434</v>
+        <v>0.03480427330999142</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>32</v>
+      </c>
+      <c r="J28" t="n">
+        <v>171</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4995953028.552999</v>
+        <v>4461248095.809414</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1060775680309105</v>
+        <v>0.1023891219920725</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03076147497137868</v>
+        <v>0.03576597318078798</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>160</v>
+      </c>
+      <c r="J29" t="n">
+        <v>171</v>
+      </c>
+      <c r="K29" t="n">
+        <v>149.5335643366315</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1798331213.932308</v>
+        <v>1945221592.734125</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1196481113130612</v>
+        <v>0.08821096693616258</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0293272296995021</v>
+        <v>0.03894033906973769</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1177255672.894579</v>
+        <v>1426794018.428953</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08951083128251341</v>
+        <v>0.07146526655537916</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03186075303977852</v>
+        <v>0.04697098619080824</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1842041814.709648</v>
+        <v>1475289754.216072</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1143517915885374</v>
+        <v>0.07976962303941634</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02552790539164172</v>
+        <v>0.02459643451995435</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2598650600.033019</v>
+        <v>2032007587.562894</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1778939295359801</v>
+        <v>0.1956562165187719</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06113570414287915</v>
+        <v>0.03771264956586197</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1422580524.795115</v>
+        <v>1211119380.928842</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08543744857408439</v>
+        <v>0.07838917416176208</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02214467720904606</v>
+        <v>0.01790655226885488</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>973097200.763244</v>
+        <v>1290960646.072974</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1077539210008035</v>
+        <v>0.08423623955279846</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0307094036213175</v>
+        <v>0.03347766871739911</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2901929087.279456</v>
+        <v>2799644035.78039</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1711205806781496</v>
+        <v>0.1660044248050511</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02292908198063366</v>
+        <v>0.01754910895553361</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2517375150.591545</v>
+        <v>2852483061.85807</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08928393551388347</v>
+        <v>0.08742643944032821</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03400652577254931</v>
+        <v>0.03147472186209817</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2043713151.8095</v>
+        <v>1915962480.307163</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08521675901621342</v>
+        <v>0.117841976581824</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03104392442704209</v>
+        <v>0.02439016116072538</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2136297305.203495</v>
+        <v>1972090361.736325</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1618916128457439</v>
+        <v>0.1707122722735028</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02405563010805366</v>
+        <v>0.02322201917660315</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1457319147.786288</v>
+        <v>1107400514.452636</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1041658331325594</v>
+        <v>0.1209471833748281</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03903969732761121</v>
+        <v>0.04721069309681816</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1894689535.864622</v>
+        <v>2272688962.736989</v>
       </c>
       <c r="F41" t="n">
-        <v>0.154783488647434</v>
+        <v>0.100954518762002</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03929037191933171</v>
+        <v>0.03499196377725762</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3505571021.021502</v>
+        <v>3613788366.724594</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09622586911154632</v>
+        <v>0.09506719291696152</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03568102807542098</v>
+        <v>0.04041674413202732</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>63</v>
+      </c>
+      <c r="J42" t="n">
+        <v>171</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2508893135.231619</v>
+        <v>3071849905.518033</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1561933640985937</v>
+        <v>0.1405784112690009</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01964714685466031</v>
+        <v>0.01610144677822927</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1517997026.529042</v>
+        <v>2202829127.701005</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06391520990596015</v>
+        <v>0.07723247724497652</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0334001801333059</v>
+        <v>0.03414508683491939</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1561408954.923623</v>
+        <v>1854844661.806689</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1529606608296359</v>
+        <v>0.1949921550887217</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05567864406820761</v>
+        <v>0.03541425534886791</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5387594721.661989</v>
+        <v>4383456351.922268</v>
       </c>
       <c r="F46" t="n">
-        <v>0.163792965035488</v>
+        <v>0.1516892725090106</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04573344716113736</v>
+        <v>0.04077566089323134</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>96</v>
+      </c>
+      <c r="J46" t="n">
+        <v>171</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4023481777.447169</v>
+        <v>3369850556.888869</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1311608454189505</v>
+        <v>0.1488153234409611</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04914258109867833</v>
+        <v>0.03972065785219497</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>76</v>
+      </c>
+      <c r="J47" t="n">
+        <v>170</v>
+      </c>
+      <c r="K47" t="n">
+        <v>72.98036284189651</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4029670786.049251</v>
+        <v>3398152172.214021</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07633802143137805</v>
+        <v>0.08297366228334287</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02508507311000931</v>
+        <v>0.03692030583587114</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>78</v>
+      </c>
+      <c r="J48" t="n">
+        <v>170</v>
+      </c>
+      <c r="K48" t="n">
+        <v>92.69025192584988</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1801358573.287463</v>
+        <v>1551174897.192087</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1238445556126015</v>
+        <v>0.191621942100457</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04021886458627182</v>
+        <v>0.03364459980439769</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3762177750.672266</v>
+        <v>3686155312.376821</v>
       </c>
       <c r="F50" t="n">
-        <v>0.156109592115411</v>
+        <v>0.1459161709264545</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04977113270869301</v>
+        <v>0.04952192870077966</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>55</v>
+      </c>
+      <c r="J50" t="n">
+        <v>171</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1369747516.759871</v>
+        <v>1510459618.167484</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1793466019451416</v>
+        <v>0.1423013630485854</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04378196638694017</v>
+        <v>0.03451301339967913</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2265,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3481687545.708469</v>
+        <v>4044032141.79091</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09763650204757537</v>
+        <v>0.1279097578453795</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05917070587109936</v>
+        <v>0.0499170995240009</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>121</v>
+      </c>
+      <c r="J52" t="n">
+        <v>171</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2294,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2980299804.839471</v>
+        <v>2833971713.447691</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1975896915800832</v>
+        <v>0.1778579399631934</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03423765332202803</v>
+        <v>0.0231562273560488</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>170</v>
+      </c>
+      <c r="K53" t="n">
+        <v>57.82598883151439</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4004977529.622678</v>
+        <v>4926532082.466171</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1673997798273309</v>
+        <v>0.1263554854793251</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05063027428337763</v>
+        <v>0.05311722084790377</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>84</v>
+      </c>
+      <c r="J54" t="n">
+        <v>171</v>
+      </c>
+      <c r="K54" t="n">
+        <v>135.4325437338779</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4317716018.101007</v>
+        <v>4504211170.322825</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2196730233201529</v>
+        <v>0.1389856225724572</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03207643456502417</v>
+        <v>0.02464337432513319</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>78</v>
+      </c>
+      <c r="J55" t="n">
+        <v>170</v>
+      </c>
+      <c r="K55" t="n">
+        <v>125.2041014115712</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1203912773.175824</v>
+        <v>1859358811.812151</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1239069078085526</v>
+        <v>0.1462372259380416</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04175165383964926</v>
+        <v>0.03864274090329232</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3542643535.188493</v>
+        <v>3555079353.431424</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1563111624751301</v>
+        <v>0.1443871101976314</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02671769029487108</v>
+        <v>0.02578265108369148</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>69</v>
+      </c>
+      <c r="J57" t="n">
+        <v>168</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1819718692.194025</v>
+        <v>1348116917.893645</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1416109119537979</v>
+        <v>0.1374445766675594</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03077706683321756</v>
+        <v>0.02733972866068683</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4339572528.553984</v>
+        <v>4321676368.012451</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1106130229335111</v>
+        <v>0.08536359561049545</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03622390667729271</v>
+        <v>0.03151215647361775</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>82</v>
+      </c>
+      <c r="J59" t="n">
+        <v>171</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3206423897.044727</v>
+        <v>3398345191.759073</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1891231590090442</v>
+        <v>0.1249335101237023</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02639415205487026</v>
+        <v>0.03146456977505785</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="n">
+        <v>91.12963410764695</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2474402145.212083</v>
+        <v>2517685325.041336</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1347223698225696</v>
+        <v>0.1459848404197719</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02979644243780257</v>
+        <v>0.03234622390871095</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1702373482.677347</v>
+        <v>1797259557.250667</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1504708819064201</v>
+        <v>0.1522296294661351</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04574083207782713</v>
+        <v>0.03090318454610684</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4973780740.304051</v>
+        <v>5029565049.499604</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09478172976257035</v>
+        <v>0.09544437711882339</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0427703998536808</v>
+        <v>0.03190063331634165</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>84</v>
+      </c>
+      <c r="J63" t="n">
+        <v>170</v>
+      </c>
+      <c r="K63" t="n">
+        <v>121.7881166844177</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5436268914.601545</v>
+        <v>5029831337.846054</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1721543086842124</v>
+        <v>0.1510745655775678</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02889196124889148</v>
+        <v>0.03364629710715957</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>84</v>
+      </c>
+      <c r="J64" t="n">
+        <v>171</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5020278237.951359</v>
+        <v>3856217002.969015</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1196836493265118</v>
+        <v>0.148958146094147</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03065069037285683</v>
+        <v>0.02917340725632969</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>141</v>
+      </c>
+      <c r="J65" t="n">
+        <v>170</v>
+      </c>
+      <c r="K65" t="n">
+        <v>117.8800649043979</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4102132575.807258</v>
+        <v>4749086219.110779</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1266480248640854</v>
+        <v>0.1238495831518503</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04487176764442539</v>
+        <v>0.0323509351585627</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>84</v>
+      </c>
+      <c r="J66" t="n">
+        <v>170</v>
+      </c>
+      <c r="K66" t="n">
+        <v>120.6982397643334</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3263494818.186319</v>
+        <v>2256840527.810852</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07012157331964815</v>
+        <v>0.1021654167579412</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03683633264180989</v>
+        <v>0.0506263460472779</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5957943398.715633</v>
+        <v>4388761977.64716</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1283877299885987</v>
+        <v>0.1219992023591695</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04520358173807042</v>
+        <v>0.04891479941096331</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>86</v>
+      </c>
+      <c r="J68" t="n">
+        <v>170</v>
+      </c>
+      <c r="K68" t="n">
+        <v>124.1620452812687</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2224719509.431256</v>
+        <v>1831816220.990799</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1162455942242958</v>
+        <v>0.1730595064036618</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03969401415401273</v>
+        <v>0.0375500283919751</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2482356026.595076</v>
+        <v>2535395702.741592</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06339139342014148</v>
+        <v>0.09735116760118094</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04612854081021817</v>
+        <v>0.04634945814495858</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3397358731.075641</v>
+        <v>4399578924.171552</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1727568842331328</v>
+        <v>0.1202270526661129</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03151263762633529</v>
+        <v>0.02141940980999905</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>135</v>
+      </c>
+      <c r="J71" t="n">
+        <v>171</v>
+      </c>
+      <c r="K71" t="n">
+        <v>132.8852130742585</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2190290193.382493</v>
+        <v>1621636572.792764</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08079824859235203</v>
+        <v>0.08932794177534349</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04768518664314932</v>
+        <v>0.0386020049656216</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3240989426.006344</v>
+        <v>2427554752.191654</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1042306386899024</v>
+        <v>0.07336950191481231</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03421002284609508</v>
+        <v>0.0330849629114511</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3053,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2676113484.448451</v>
+        <v>3551021369.954886</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1699091720189188</v>
+        <v>0.181714526864977</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03555348616266867</v>
+        <v>0.02392197611110993</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>50</v>
+      </c>
+      <c r="J74" t="n">
+        <v>169</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2405933234.680402</v>
+        <v>2389391579.974847</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1599662572249863</v>
+        <v>0.1045417527646871</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03396785231831077</v>
+        <v>0.03538556090134223</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3427078275.65388</v>
+        <v>4095712542.088903</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09205470209768048</v>
+        <v>0.1098312781441144</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02095179521453143</v>
+        <v>0.02377318261192641</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>78</v>
+      </c>
+      <c r="J76" t="n">
+        <v>170</v>
+      </c>
+      <c r="K76" t="n">
+        <v>108.8428175349295</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2063132658.786823</v>
+        <v>1969810837.442189</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1570459647131118</v>
+        <v>0.1422999429451648</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0207039369457927</v>
+        <v>0.03091775998001875</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2948989159.18391</v>
+        <v>3916783346.907022</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1291173186445618</v>
+        <v>0.1366901914999887</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0445914946313075</v>
+        <v>0.0393831561089054</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>86</v>
+      </c>
+      <c r="J78" t="n">
+        <v>170</v>
+      </c>
+      <c r="K78" t="n">
+        <v>123.4734846450793</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1820037664.714227</v>
+        <v>1290887524.488303</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1135343900043105</v>
+        <v>0.1774609361240487</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03411837670359225</v>
+        <v>0.03078635475387172</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4777599957.663015</v>
+        <v>4237446240.614215</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1027036176195921</v>
+        <v>0.07189849767747013</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02407509939445616</v>
+        <v>0.03407382702242816</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>83</v>
+      </c>
+      <c r="J80" t="n">
+        <v>171</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4504486713.434661</v>
+        <v>4169225448.411446</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1326107422035661</v>
+        <v>0.1049368413815601</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01995897510700962</v>
+        <v>0.02278591866772274</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>78</v>
+      </c>
+      <c r="J81" t="n">
+        <v>171</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5053912567.120558</v>
+        <v>4224216183.927762</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1398681789661657</v>
+        <v>0.132524038397768</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02064061106155656</v>
+        <v>0.02301207606645431</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>126</v>
+      </c>
+      <c r="J82" t="n">
+        <v>171</v>
+      </c>
+      <c r="K82" t="n">
+        <v>138.8943752151317</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1829314292.539405</v>
+        <v>2226702965.571718</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1096506142348561</v>
+        <v>0.1465826941524168</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03188516642005054</v>
+        <v>0.03057766989387503</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1656904609.473549</v>
+        <v>1931032700.399802</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1208610653671058</v>
+        <v>0.106708543330924</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0519916040595805</v>
+        <v>0.03420240157384633</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3438,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2855885776.298004</v>
+        <v>2256038161.249105</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1662761989228228</v>
+        <v>0.1802764360104108</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04769407844872079</v>
+        <v>0.04765143101944622</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="n">
+        <v>43.05682046629169</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2355695266.236969</v>
+        <v>2260298732.13414</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1310641559065669</v>
+        <v>0.1139510511517373</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01898905644966026</v>
+        <v>0.02491568375619505</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>925471302.2276099</v>
+        <v>1023496109.628497</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1652156960491062</v>
+        <v>0.1221378728045198</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03596178866376805</v>
+        <v>0.03023919913547352</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3519801872.053082</v>
+        <v>3225000116.65257</v>
       </c>
       <c r="F88" t="n">
-        <v>0.139097264845222</v>
+        <v>0.1175805336161866</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03083928718035773</v>
+        <v>0.03888533712737804</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3192237907.232025</v>
+        <v>3269070245.812068</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1108031630925469</v>
+        <v>0.1173809639572022</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02837139283979904</v>
+        <v>0.02891209507378628</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1786617875.320347</v>
+        <v>2061282931.458711</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1184301837357405</v>
+        <v>0.1379129525385737</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04703887593378187</v>
+        <v>0.03507964444216598</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1535074850.692365</v>
+        <v>1553057581.097634</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1750173645868075</v>
+        <v>0.1621753912064797</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04324701639656359</v>
+        <v>0.05205164273381231</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3691,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2989240243.291385</v>
+        <v>2743794627.058438</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09280344888842462</v>
+        <v>0.09758520720422122</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03602821625180296</v>
+        <v>0.03987542882586168</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4547167853.009278</v>
+        <v>3814332752.207798</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1037115854609365</v>
+        <v>0.1043265393522975</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03821256349726793</v>
+        <v>0.04812488819992821</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>76</v>
+      </c>
+      <c r="J93" t="n">
+        <v>171</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2162623596.960722</v>
+        <v>2048401691.115679</v>
       </c>
       <c r="F94" t="n">
-        <v>0.163129054142892</v>
+        <v>0.1197938883046147</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02989522126294105</v>
+        <v>0.03861069695890464</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2874161897.588788</v>
+        <v>2511013123.059233</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1344106516455528</v>
+        <v>0.1066688911904775</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04246456299839475</v>
+        <v>0.040770046107832</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2220876599.231885</v>
+        <v>2235042342.601189</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1236474302354625</v>
+        <v>0.08626243587264849</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04011950536985958</v>
+        <v>0.04571708646731016</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4778787014.341163</v>
+        <v>4099797808.169974</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1374194724568919</v>
+        <v>0.1633395066913564</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01971482573449038</v>
+        <v>0.02195292118469263</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>82</v>
+      </c>
+      <c r="J97" t="n">
+        <v>171</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3079401053.535665</v>
+        <v>2814053182.001495</v>
       </c>
       <c r="F98" t="n">
-        <v>0.105351504802451</v>
+        <v>0.1274091494337072</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02268420432851935</v>
+        <v>0.02896739249227837</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>41</v>
+      </c>
+      <c r="J98" t="n">
+        <v>169</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2786166616.677945</v>
+        <v>2776675707.734685</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09308014994822522</v>
+        <v>0.09456183511926203</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02355712245315847</v>
+        <v>0.03401654767784445</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3177335626.360648</v>
+        <v>2934820857.493778</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1530704252613288</v>
+        <v>0.1706527729591205</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02523953198285128</v>
+        <v>0.01890049288624617</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>71</v>
+      </c>
+      <c r="J100" t="n">
+        <v>168</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2805126216.073531</v>
+        <v>3245366487.588745</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1669302932062677</v>
+        <v>0.2209215550422982</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04741968089534185</v>
+        <v>0.05583846622647378</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>167</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
